--- a/Code/Results/Cases/Case_2_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.303514106595287</v>
+        <v>0.8958974811491487</v>
       </c>
       <c r="C2">
-        <v>0.07573549710757277</v>
+        <v>0.09212820554067491</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06568090323790798</v>
+        <v>0.09849383471637552</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.7876327096332574</v>
+        <v>1.276085621342546</v>
       </c>
       <c r="H2">
-        <v>0.5759437122218145</v>
+        <v>1.220571132696733</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.021725726584208</v>
+        <v>0.4897642838174079</v>
       </c>
       <c r="L2">
-        <v>0.2537200955935077</v>
+        <v>0.2076874156526998</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.106603330341251</v>
+        <v>2.206381522087909</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.140699543083258</v>
+        <v>0.855131877062405</v>
       </c>
       <c r="C3">
-        <v>0.07221752388552005</v>
+        <v>0.09088503284039007</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0608254777719246</v>
+        <v>0.09779839334300888</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.7651566742534612</v>
+        <v>1.278688799162438</v>
       </c>
       <c r="H3">
-        <v>0.57355260727104</v>
+        <v>1.226812232622564</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8867103587778615</v>
+        <v>0.4533821092130381</v>
       </c>
       <c r="L3">
-        <v>0.224209580202583</v>
+        <v>0.2008295540185259</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.161040215662055</v>
+        <v>2.22848029150143</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.041774032244632</v>
+        <v>0.8305502884286398</v>
       </c>
       <c r="C4">
-        <v>0.07005682593875662</v>
+        <v>0.09010933337058447</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05792989236817903</v>
+        <v>0.09741839317298684</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.7530381892633073</v>
+        <v>1.281007804894259</v>
       </c>
       <c r="H4">
-        <v>0.5730547960651222</v>
+        <v>1.231151867882531</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8044651499989186</v>
+        <v>0.4312525970329659</v>
       </c>
       <c r="L4">
-        <v>0.2063613888661564</v>
+        <v>0.196734486755318</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.195966331947321</v>
+        <v>2.242758706423654</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.001695361722568</v>
+        <v>0.8206462812852351</v>
       </c>
       <c r="C5">
-        <v>0.06917561660958427</v>
+        <v>0.08979011341237708</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05677018289786062</v>
+        <v>0.09727537532556596</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.7484995942997017</v>
+        <v>1.282133840922782</v>
       </c>
       <c r="H5">
-        <v>0.5730855176846177</v>
+        <v>1.233047959976403</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7710919099038165</v>
+        <v>0.4222874953840687</v>
       </c>
       <c r="L5">
-        <v>0.1991501557642863</v>
+        <v>0.1950948371984111</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.210566691569053</v>
+        <v>2.248755669054308</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9950536893975936</v>
+        <v>0.8190085758407406</v>
       </c>
       <c r="C6">
-        <v>0.06902923457736421</v>
+        <v>0.0897369189344559</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05657880197757592</v>
+        <v>0.09725234261381743</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.7477694582445196</v>
+        <v>1.282331746148543</v>
       </c>
       <c r="H6">
-        <v>0.5731044335375373</v>
+        <v>1.233370515372144</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7655582796387534</v>
+        <v>0.4208020460889941</v>
       </c>
       <c r="L6">
-        <v>0.1979563092306762</v>
+        <v>0.1948243346214582</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.213012998126196</v>
+        <v>2.249762232827869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.041232604602783</v>
+        <v>0.8304162607301748</v>
       </c>
       <c r="C7">
-        <v>0.07004494519739524</v>
+        <v>0.09010504087667925</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05791417170468449</v>
+        <v>0.0974164164421758</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.7529753910969248</v>
+        <v>1.281022258310571</v>
       </c>
       <c r="H7">
-        <v>0.5730542779473637</v>
+        <v>1.231176922344901</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8040145189553698</v>
+        <v>0.4311314762305187</v>
       </c>
       <c r="L7">
-        <v>0.206263892348872</v>
+        <v>0.1967122559030656</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.196161761448771</v>
+        <v>2.242838861341276</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.247141658138673</v>
+        <v>0.8817485895493462</v>
       </c>
       <c r="C8">
-        <v>0.07452229344397665</v>
+        <v>0.09170212918362353</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06398818148863938</v>
+        <v>0.0982442999606512</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.7795195502406926</v>
+        <v>1.276833510328899</v>
       </c>
       <c r="H8">
-        <v>0.5749114078627287</v>
+        <v>1.222617728650292</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9750226554477592</v>
+        <v>0.4771763952184926</v>
       </c>
       <c r="L8">
-        <v>0.2434846993115798</v>
+        <v>0.2052988311048694</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.125055362987773</v>
+        <v>2.213853847843321</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.660576939910896</v>
+        <v>0.9859608992144047</v>
       </c>
       <c r="C9">
-        <v>0.0833242726577339</v>
+        <v>0.09473592698562072</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07664075127647507</v>
+        <v>0.1002402346856961</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.8460331328407165</v>
+        <v>1.274347301887445</v>
       </c>
       <c r="H9">
-        <v>0.5867544488512948</v>
+        <v>1.209860144005603</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.316654809246899</v>
+        <v>0.5691260797274253</v>
       </c>
       <c r="L9">
-        <v>0.3189287751615097</v>
+        <v>0.2230546989700315</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9980037014093348</v>
+        <v>2.162647277537499</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.972280187455226</v>
+        <v>1.064685264047455</v>
       </c>
       <c r="C10">
-        <v>0.08984615068116852</v>
+        <v>0.09690551159251015</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08648105257125849</v>
+        <v>0.1019333408760588</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.9053837687436044</v>
+        <v>1.276028310658361</v>
       </c>
       <c r="H10">
-        <v>0.6012056741738832</v>
+        <v>1.202942357298411</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.57313442658392</v>
+        <v>0.6376918255818111</v>
       </c>
       <c r="L10">
-        <v>0.3763062828022044</v>
+        <v>0.2366606187650149</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.912910692747559</v>
+        <v>2.128461268563651</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.116310818610202</v>
+        <v>1.100967605305698</v>
       </c>
       <c r="C11">
-        <v>0.09283546553302813</v>
+        <v>0.09787973323489041</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09109812502887493</v>
+        <v>0.1027527457792203</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.9350640541131554</v>
+        <v>1.277558239926819</v>
       </c>
       <c r="H11">
-        <v>0.6092104234357691</v>
+        <v>1.200328552392619</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.691405091067367</v>
+        <v>0.6691042216453411</v>
       </c>
       <c r="L11">
-        <v>0.40294134272267</v>
+        <v>0.2429724328912783</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8761612935195409</v>
+        <v>2.113655475020426</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.171218007942912</v>
+        <v>1.114774171865974</v>
       </c>
       <c r="C12">
-        <v>0.09397162977205653</v>
+        <v>0.09824681907650756</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09286871327958934</v>
+        <v>0.1030700975735215</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.9467255577425107</v>
+        <v>1.278247880633415</v>
       </c>
       <c r="H12">
-        <v>0.6124639626285955</v>
+        <v>1.199415443178538</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.736456818375245</v>
+        <v>0.6810310170907314</v>
       </c>
       <c r="L12">
-        <v>0.4131139331960867</v>
+        <v>0.2453801499539594</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8625428141389975</v>
+        <v>2.108156201289521</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.159375739521067</v>
+        <v>1.111797696747885</v>
       </c>
       <c r="C13">
-        <v>0.09372673470523551</v>
+        <v>0.09816784199144024</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09248636480676353</v>
+        <v>0.1030014363765837</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.9441946490992876</v>
+        <v>1.27809444499924</v>
       </c>
       <c r="H13">
-        <v>0.6117530884050097</v>
+        <v>1.199608686824334</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.726741729056613</v>
+        <v>0.6784609666860888</v>
       </c>
       <c r="L13">
-        <v>0.4109190746251841</v>
+        <v>0.244860824094232</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8654622885425098</v>
+        <v>2.109335791136928</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.12082046445596</v>
+        <v>1.10210213464444</v>
       </c>
       <c r="C14">
-        <v>0.09292884901604737</v>
+        <v>0.09790997029728743</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0912433355371931</v>
+        <v>0.1027787130723006</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.9360147701271302</v>
+        <v>1.277612765273204</v>
       </c>
       <c r="H14">
-        <v>0.6094735386577526</v>
+        <v>1.200251893416507</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.695105994268715</v>
+        <v>0.6700848143333644</v>
       </c>
       <c r="L14">
-        <v>0.4037764563197186</v>
+        <v>0.2431701652805742</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8750348303971194</v>
+        <v>2.113200893992374</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.097253282259089</v>
+        <v>1.096172066933036</v>
       </c>
       <c r="C15">
-        <v>0.09244069441461988</v>
+        <v>0.09775177803206248</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09048489698972872</v>
+        <v>0.1026432077367296</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.9310604842139156</v>
+        <v>1.277332092965153</v>
       </c>
       <c r="H15">
-        <v>0.6081067160662741</v>
+        <v>1.200655862853424</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.675763836976699</v>
+        <v>0.6649582874396742</v>
       </c>
       <c r="L15">
-        <v>0.3994129595802889</v>
+        <v>0.2421368751062971</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8809375554668719</v>
+        <v>2.115582366722677</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.962916145232782</v>
+        <v>1.062323556841193</v>
       </c>
       <c r="C16">
-        <v>0.08965132272118836</v>
+        <v>0.09684158771406715</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08618231199606541</v>
+        <v>0.1018807796926744</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.9035011119318881</v>
+        <v>1.275943745953995</v>
       </c>
       <c r="H16">
-        <v>0.6007127212404555</v>
+        <v>1.203123905093435</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.565440265122248</v>
+        <v>0.6356433874494485</v>
       </c>
       <c r="L16">
-        <v>0.3745771722315254</v>
+        <v>0.236250587324335</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9153531182937407</v>
+        <v>2.12944387742019</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.881107672277409</v>
+        <v>1.041678753935969</v>
       </c>
       <c r="C17">
-        <v>0.08794653249743334</v>
+        <v>0.09627995431488046</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08358020174062375</v>
+        <v>0.1014256465041896</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.887306223408288</v>
+        <v>1.275288211648487</v>
       </c>
       <c r="H17">
-        <v>0.5965545670892567</v>
+        <v>1.204774529330308</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.498193684778244</v>
+        <v>0.6177161991874982</v>
       </c>
       <c r="L17">
-        <v>0.3594845960061974</v>
+        <v>0.2326708699620781</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9369788126587757</v>
+        <v>2.138138530554734</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.834261121180276</v>
+        <v>1.029848692950253</v>
       </c>
       <c r="C18">
-        <v>0.08696803628038907</v>
+        <v>0.09595571910285372</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08209665022921797</v>
+        <v>0.1011684979479099</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.8782413690954911</v>
+        <v>1.274983177645623</v>
       </c>
       <c r="H18">
-        <v>0.594296511242419</v>
+        <v>1.205774104339724</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.459663227243453</v>
+        <v>0.6074258175073624</v>
       </c>
       <c r="L18">
-        <v>0.3508533568366516</v>
+        <v>0.230623435262828</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9496007818418271</v>
+        <v>2.143209635010134</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.818434029478851</v>
+        <v>1.025850855157017</v>
       </c>
       <c r="C19">
-        <v>0.08663705985967596</v>
+        <v>0.09584573277419395</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08159653973930503</v>
+        <v>0.1010822278549739</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.8752140383997045</v>
+        <v>1.274892258894113</v>
       </c>
       <c r="H19">
-        <v>0.5935544365946299</v>
+        <v>1.206121161126802</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.446641859425483</v>
+        <v>0.6039452618657606</v>
       </c>
       <c r="L19">
-        <v>0.3479392049519703</v>
+        <v>0.2299321893193991</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9539054069800947</v>
+        <v>2.144938671296259</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.889794535938819</v>
+        <v>1.04387184807328</v>
       </c>
       <c r="C20">
-        <v>0.08812779121469561</v>
+        <v>0.09633986519062177</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08385582980665163</v>
+        <v>0.1014736169167811</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.8890040653302691</v>
+        <v>1.27535053960905</v>
       </c>
       <c r="H20">
-        <v>0.5969832665471273</v>
+        <v>1.204593624029059</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.505336632775197</v>
+        <v>0.6196224215545101</v>
       </c>
       <c r="L20">
-        <v>0.3610860240086566</v>
+        <v>0.2330507445297627</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9346576240986337</v>
+        <v>2.137205706525798</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.13213477932635</v>
+        <v>1.104948134699782</v>
       </c>
       <c r="C21">
-        <v>0.09316308606157264</v>
+        <v>0.09798576314955199</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09160782426306113</v>
+        <v>0.1028439407875368</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.9384056324281431</v>
+        <v>1.277751251050617</v>
       </c>
       <c r="H21">
-        <v>0.6101369251236122</v>
+        <v>1.200060886768199</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.704390680479293</v>
+        <v>0.6725442375998227</v>
       </c>
       <c r="L21">
-        <v>0.405871988204936</v>
+        <v>0.2436662761718651</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.872214929367356</v>
+        <v>2.112062704738165</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.292674379532173</v>
+        <v>1.145256715723576</v>
       </c>
       <c r="C22">
-        <v>0.09647879041113328</v>
+        <v>0.09905078176091564</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09680464906922381</v>
+        <v>0.1037806766186193</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.9731727430383188</v>
+        <v>1.279963224735326</v>
       </c>
       <c r="H22">
-        <v>0.6200381447845018</v>
+        <v>1.197545451751296</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.836048517012301</v>
+        <v>0.7073157946697108</v>
       </c>
       <c r="L22">
-        <v>0.435651327040631</v>
+        <v>0.2507065362211875</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8331487333125054</v>
+        <v>2.096256139040612</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.206778382297443</v>
+        <v>1.12370755478031</v>
       </c>
       <c r="C23">
-        <v>0.09470652551843273</v>
+        <v>0.09848333755931549</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09401837581523509</v>
+        <v>0.1032769625641627</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.954377001535903</v>
+        <v>1.278723737827605</v>
       </c>
       <c r="H23">
-        <v>0.6146284645899698</v>
+        <v>1.198847082452417</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.76562453398185</v>
+        <v>0.6887407975471262</v>
       </c>
       <c r="L23">
-        <v>0.4197075244194508</v>
+        <v>0.2469396584669568</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8538339364004379</v>
+        <v>2.104635087891051</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.885866628131424</v>
+        <v>1.042880228980266</v>
       </c>
       <c r="C24">
-        <v>0.08804583920269238</v>
+        <v>0.09631278367395879</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08373117976900346</v>
+        <v>0.1014519154332838</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.8882357081097751</v>
+        <v>1.275322137370992</v>
       </c>
       <c r="H24">
-        <v>0.5967890399802656</v>
+        <v>1.204675253666565</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.502106902168464</v>
+        <v>0.6187605679514832</v>
       </c>
       <c r="L24">
-        <v>0.3603618768385957</v>
+        <v>0.2328789702422114</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9357064457238309</v>
+        <v>2.1376272106457</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.547494396566236</v>
+        <v>0.9573891481026067</v>
       </c>
       <c r="C25">
-        <v>0.08093668395168407</v>
+        <v>0.09392565892922988</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0731293651266256</v>
+        <v>0.09966044550620268</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.8263267571979043</v>
+        <v>1.274405053638674</v>
       </c>
       <c r="H25">
-        <v>0.5825985609989317</v>
+        <v>1.212880272640845</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.223398491115972</v>
+        <v>0.5440739039493678</v>
       </c>
       <c r="L25">
-        <v>0.2982116812015079</v>
+        <v>0.2181528971193245</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.030979400260236</v>
+        <v>2.175896829143909</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8958974811491487</v>
+        <v>1.303514106595344</v>
       </c>
       <c r="C2">
-        <v>0.09212820554067491</v>
+        <v>0.07573549710758698</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09849383471637552</v>
+        <v>0.06568090323792575</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.276085621342546</v>
+        <v>0.787632709633229</v>
       </c>
       <c r="H2">
-        <v>1.220571132696733</v>
+        <v>0.5759437122218145</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4897642838174079</v>
+        <v>1.021725726584293</v>
       </c>
       <c r="L2">
-        <v>0.2076874156526998</v>
+        <v>0.253720095593593</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.206381522087909</v>
+        <v>1.106603330341212</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.855131877062405</v>
+        <v>1.140699543083258</v>
       </c>
       <c r="C3">
-        <v>0.09088503284039007</v>
+        <v>0.07221752388552005</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09779839334300888</v>
+        <v>0.06082547777192104</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.278688799162438</v>
+        <v>0.7651566742534897</v>
       </c>
       <c r="H3">
-        <v>1.226812232622564</v>
+        <v>0.5735526072711536</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4533821092130381</v>
+        <v>0.88671035877789</v>
       </c>
       <c r="L3">
-        <v>0.2008295540185259</v>
+        <v>0.224209580202583</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.22848029150143</v>
+        <v>1.161040215662055</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8305502884286398</v>
+        <v>1.041774032244632</v>
       </c>
       <c r="C4">
-        <v>0.09010933337058447</v>
+        <v>0.0700568259389982</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09741839317298684</v>
+        <v>0.05792989236816837</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.281007804894259</v>
+        <v>0.7530381892633926</v>
       </c>
       <c r="H4">
-        <v>1.231151867882531</v>
+        <v>0.5730547960652217</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4312525970329659</v>
+        <v>0.804465149998947</v>
       </c>
       <c r="L4">
-        <v>0.196734486755318</v>
+        <v>0.2063613888662843</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.242758706423654</v>
+        <v>1.195966331947314</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8206462812852351</v>
+        <v>1.001695361722824</v>
       </c>
       <c r="C5">
-        <v>0.08979011341237708</v>
+        <v>0.06917561661030192</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09727537532556596</v>
+        <v>0.05677018289782154</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.282133840922782</v>
+        <v>0.7484995942997017</v>
       </c>
       <c r="H5">
-        <v>1.233047959976403</v>
+        <v>0.5730855176846319</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4222874953840687</v>
+        <v>0.7710919099038449</v>
       </c>
       <c r="L5">
-        <v>0.1950948371984111</v>
+        <v>0.1991501557642721</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.248755669054308</v>
+        <v>1.210566691569042</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8190085758407406</v>
+        <v>0.9950536893975936</v>
       </c>
       <c r="C6">
-        <v>0.0897369189344559</v>
+        <v>0.06902923457747789</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09725234261381743</v>
+        <v>0.05657880197756171</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.282331746148543</v>
+        <v>0.7477694582445054</v>
       </c>
       <c r="H6">
-        <v>1.233370515372144</v>
+        <v>0.5731044335375373</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4208020460889941</v>
+        <v>0.7655582796388956</v>
       </c>
       <c r="L6">
-        <v>0.1948243346214582</v>
+        <v>0.197956309230662</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.249762232827869</v>
+        <v>1.213012998126182</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8304162607301748</v>
+        <v>1.041232604602641</v>
       </c>
       <c r="C7">
-        <v>0.09010504087667925</v>
+        <v>0.07004494519680549</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0974164164421758</v>
+        <v>0.05791417170469515</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.281022258310571</v>
+        <v>0.7529753910969248</v>
       </c>
       <c r="H7">
-        <v>1.231176922344901</v>
+        <v>0.5730542779473495</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4311314762305187</v>
+        <v>0.8040145189553698</v>
       </c>
       <c r="L7">
-        <v>0.1967122559030656</v>
+        <v>0.2062638923487299</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.242838861341276</v>
+        <v>1.196161761448764</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8817485895493462</v>
+        <v>1.247141658138901</v>
       </c>
       <c r="C8">
-        <v>0.09170212918362353</v>
+        <v>0.07452229344421823</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0982442999606512</v>
+        <v>0.06398818148862517</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.276833510328899</v>
+        <v>0.7795195502406784</v>
       </c>
       <c r="H8">
-        <v>1.222617728650292</v>
+        <v>0.5749114078627287</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4771763952184926</v>
+        <v>0.9750226554477308</v>
       </c>
       <c r="L8">
-        <v>0.2052988311048694</v>
+        <v>0.2434846993115514</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.213853847843321</v>
+        <v>1.125055362987773</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9859608992144047</v>
+        <v>1.660576939910982</v>
       </c>
       <c r="C9">
-        <v>0.09473592698562072</v>
+        <v>0.08332427265798259</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1002402346856961</v>
+        <v>0.07664075127647862</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.274347301887445</v>
+        <v>0.8460331328407449</v>
       </c>
       <c r="H9">
-        <v>1.209860144005603</v>
+        <v>0.5867544488513232</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5691260797274253</v>
+        <v>1.316654809246842</v>
       </c>
       <c r="L9">
-        <v>0.2230546989700315</v>
+        <v>0.3189287751615808</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.162647277537499</v>
+        <v>0.9980037014093419</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.064685264047455</v>
+        <v>1.972280187455283</v>
       </c>
       <c r="C10">
-        <v>0.09690551159251015</v>
+        <v>0.08984615068116852</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1019333408760588</v>
+        <v>0.08648105257127625</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.276028310658361</v>
+        <v>0.9053837687435902</v>
       </c>
       <c r="H10">
-        <v>1.202942357298411</v>
+        <v>0.6012056741739968</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6376918255818111</v>
+        <v>1.573134426584005</v>
       </c>
       <c r="L10">
-        <v>0.2366606187650149</v>
+        <v>0.3763062828020622</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.128461268563651</v>
+        <v>0.9129106927475092</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.100967605305698</v>
+        <v>2.116310818610202</v>
       </c>
       <c r="C11">
-        <v>0.09787973323489041</v>
+        <v>0.09283546553280075</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1027527457792203</v>
+        <v>0.09109812502886072</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.277558239926819</v>
+        <v>0.9350640541131838</v>
       </c>
       <c r="H11">
-        <v>1.200328552392619</v>
+        <v>0.6092104234357691</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6691042216453411</v>
+        <v>1.691405091067367</v>
       </c>
       <c r="L11">
-        <v>0.2429724328912783</v>
+        <v>0.4029413427227837</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.113655475020426</v>
+        <v>0.8761612935194876</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.114774171865974</v>
+        <v>2.171218007942855</v>
       </c>
       <c r="C12">
-        <v>0.09824681907650756</v>
+        <v>0.09397162977182205</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1030700975735215</v>
+        <v>0.09286871327957158</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.278247880633415</v>
+        <v>0.9467255577424254</v>
       </c>
       <c r="H12">
-        <v>1.199415443178538</v>
+        <v>0.6124639626285955</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6810310170907314</v>
+        <v>1.736456818375132</v>
       </c>
       <c r="L12">
-        <v>0.2453801499539594</v>
+        <v>0.4131139331960583</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.108156201289521</v>
+        <v>0.8625428141390152</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.111797696747885</v>
+        <v>2.159375739521067</v>
       </c>
       <c r="C13">
-        <v>0.09816784199144024</v>
+        <v>0.09372673470512893</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1030014363765837</v>
+        <v>0.09248636480678485</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.27809444499924</v>
+        <v>0.9441946490994155</v>
       </c>
       <c r="H13">
-        <v>1.199608686824334</v>
+        <v>0.6117530884049671</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6784609666860888</v>
+        <v>1.726741729056755</v>
       </c>
       <c r="L13">
-        <v>0.244860824094232</v>
+        <v>0.4109190746251414</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.109335791136928</v>
+        <v>0.8654622885425027</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.10210213464444</v>
+        <v>2.120820464456074</v>
       </c>
       <c r="C14">
-        <v>0.09790997029728743</v>
+        <v>0.09292884901604737</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1027787130723006</v>
+        <v>0.09124333553718245</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.277612765273204</v>
+        <v>0.9360147701271586</v>
       </c>
       <c r="H14">
-        <v>1.200251893416507</v>
+        <v>0.6094735386577383</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6700848143333644</v>
+        <v>1.695105994268658</v>
       </c>
       <c r="L14">
-        <v>0.2431701652805742</v>
+        <v>0.4037764563198323</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.113200893992374</v>
+        <v>0.8750348303970767</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.096172066933036</v>
+        <v>2.097253282259146</v>
       </c>
       <c r="C15">
-        <v>0.09775177803206248</v>
+        <v>0.09244069441448488</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1026432077367296</v>
+        <v>0.09048489698973228</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.277332092965153</v>
+        <v>0.9310604842139298</v>
       </c>
       <c r="H15">
-        <v>1.200655862853424</v>
+        <v>0.6081067160663594</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6649582874396742</v>
+        <v>1.675763836976785</v>
       </c>
       <c r="L15">
-        <v>0.2421368751062971</v>
+        <v>0.3994129595803457</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.115582366722677</v>
+        <v>0.8809375554668009</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.062323556841193</v>
+        <v>1.962916145232839</v>
       </c>
       <c r="C16">
-        <v>0.09684158771406715</v>
+        <v>0.08965132272120968</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1018807796926744</v>
+        <v>0.08618231199606541</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.275943745953995</v>
+        <v>0.9035011119318881</v>
       </c>
       <c r="H16">
-        <v>1.203123905093435</v>
+        <v>0.6007127212404413</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6356433874494485</v>
+        <v>1.565440265122305</v>
       </c>
       <c r="L16">
-        <v>0.236250587324335</v>
+        <v>0.3745771722315254</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.12944387742019</v>
+        <v>0.9153531182937407</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.041678753935969</v>
+        <v>1.881107672277466</v>
       </c>
       <c r="C17">
-        <v>0.09627995431488046</v>
+        <v>0.08794653249731255</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1014256465041896</v>
+        <v>0.08358020174061664</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.275288211648487</v>
+        <v>0.8873062234083307</v>
       </c>
       <c r="H17">
-        <v>1.204774529330308</v>
+        <v>0.5965545670892567</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6177161991874982</v>
+        <v>1.498193684778215</v>
       </c>
       <c r="L17">
-        <v>0.2326708699620781</v>
+        <v>0.3594845960061264</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.138138530554734</v>
+        <v>0.9369788126587721</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.029848692950253</v>
+        <v>1.834261121180248</v>
       </c>
       <c r="C18">
-        <v>0.09595571910285372</v>
+        <v>0.08696803628038907</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1011684979479099</v>
+        <v>0.08209665022921087</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.274983177645623</v>
+        <v>0.8782413690954627</v>
       </c>
       <c r="H18">
-        <v>1.205774104339724</v>
+        <v>0.594296511242419</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6074258175073624</v>
+        <v>1.459663227243396</v>
       </c>
       <c r="L18">
-        <v>0.230623435262828</v>
+        <v>0.3508533568366516</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.143209635010134</v>
+        <v>0.9496007818418271</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.025850855157017</v>
+        <v>1.818434029478823</v>
       </c>
       <c r="C19">
-        <v>0.09584573277419395</v>
+        <v>0.08663705985968306</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1010822278549739</v>
+        <v>0.08159653973930148</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.274892258894113</v>
+        <v>0.8752140383997329</v>
       </c>
       <c r="H19">
-        <v>1.206121161126802</v>
+        <v>0.5935544365946157</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6039452618657606</v>
+        <v>1.44664185942554</v>
       </c>
       <c r="L19">
-        <v>0.2299321893193991</v>
+        <v>0.347939204951885</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.144938671296259</v>
+        <v>0.9539054069800805</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.04387184807328</v>
+        <v>1.889794535938961</v>
       </c>
       <c r="C20">
-        <v>0.09633986519062177</v>
+        <v>0.0881277912148164</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1014736169167811</v>
+        <v>0.08385582980664807</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.27535053960905</v>
+        <v>0.8890040653302549</v>
       </c>
       <c r="H20">
-        <v>1.204593624029059</v>
+        <v>0.5969832665471415</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6196224215545101</v>
+        <v>1.505336632775283</v>
       </c>
       <c r="L20">
-        <v>0.2330507445297627</v>
+        <v>0.3610860240086851</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.137205706525798</v>
+        <v>0.9346576240986089</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.104948134699782</v>
+        <v>2.132134779326407</v>
       </c>
       <c r="C21">
-        <v>0.09798576314955199</v>
+        <v>0.09316308606144474</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1028439407875368</v>
+        <v>0.09160782426306113</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.277751251050617</v>
+        <v>0.9384056324281147</v>
       </c>
       <c r="H21">
-        <v>1.200060886768199</v>
+        <v>0.610136925123598</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6725442375998227</v>
+        <v>1.704390680479236</v>
       </c>
       <c r="L21">
-        <v>0.2436662761718651</v>
+        <v>0.4058719882050212</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.112062704738165</v>
+        <v>0.8722149293673525</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.145256715723576</v>
+        <v>2.292674379532286</v>
       </c>
       <c r="C22">
-        <v>0.09905078176091564</v>
+        <v>0.09647879041113328</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1037806766186193</v>
+        <v>0.09680464906923447</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.279963224735326</v>
+        <v>0.9731727430383472</v>
       </c>
       <c r="H22">
-        <v>1.197545451751296</v>
+        <v>0.6200381447845018</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7073157946697108</v>
+        <v>1.836048517012358</v>
       </c>
       <c r="L22">
-        <v>0.2507065362211875</v>
+        <v>0.4356513270405316</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.096256139040612</v>
+        <v>0.8331487333125516</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.12370755478031</v>
+        <v>2.206778382297273</v>
       </c>
       <c r="C23">
-        <v>0.09848333755931549</v>
+        <v>0.09470652551819114</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1032769625641627</v>
+        <v>0.09401837581521377</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.278723737827605</v>
+        <v>0.9543770015359172</v>
       </c>
       <c r="H23">
-        <v>1.198847082452417</v>
+        <v>0.6146284645899698</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6887407975471262</v>
+        <v>1.765624533981821</v>
       </c>
       <c r="L23">
-        <v>0.2469396584669568</v>
+        <v>0.4197075244194082</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.104635087891051</v>
+        <v>0.8538339364003775</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.042880228980266</v>
+        <v>1.885866628131453</v>
       </c>
       <c r="C24">
-        <v>0.09631278367395879</v>
+        <v>0.08804583920281317</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1014519154332838</v>
+        <v>0.08373117976899991</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.275322137370992</v>
+        <v>0.8882357081098178</v>
       </c>
       <c r="H24">
-        <v>1.204675253666565</v>
+        <v>0.5967890399801803</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6187605679514832</v>
+        <v>1.502106902168464</v>
       </c>
       <c r="L24">
-        <v>0.2328789702422114</v>
+        <v>0.3603618768385104</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.1376272106457</v>
+        <v>0.935706445723838</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9573891481026067</v>
+        <v>1.547494396566094</v>
       </c>
       <c r="C25">
-        <v>0.09392565892922988</v>
+        <v>0.08093668395157749</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09966044550620268</v>
+        <v>0.07312936512666113</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.274405053638674</v>
+        <v>0.826326757197819</v>
       </c>
       <c r="H25">
-        <v>1.212880272640845</v>
+        <v>0.5825985609988322</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5440739039493678</v>
+        <v>1.223398491115915</v>
       </c>
       <c r="L25">
-        <v>0.2181528971193245</v>
+        <v>0.2982116812014226</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.175896829143909</v>
+        <v>1.030979400260186</v>
       </c>
       <c r="O25">
         <v>0</v>
